--- a/cleancali3.xlsx
+++ b/cleancali3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="1021">
   <si>
     <t>Clinic_name</t>
   </si>
@@ -1169,6 +1169,411 @@
   </si>
   <si>
     <t>CA</t>
+  </si>
+  <si>
+    <t>91006</t>
+  </si>
+  <si>
+    <t>95602</t>
+  </si>
+  <si>
+    <t>92656</t>
+  </si>
+  <si>
+    <t>93420</t>
+  </si>
+  <si>
+    <t>93301</t>
+  </si>
+  <si>
+    <t>94531</t>
+  </si>
+  <si>
+    <t>92307</t>
+  </si>
+  <si>
+    <t>93422</t>
+  </si>
+  <si>
+    <t>95603</t>
+  </si>
+  <si>
+    <t>93313</t>
+  </si>
+  <si>
+    <t>95928</t>
+  </si>
+  <si>
+    <t>91911</t>
+  </si>
+  <si>
+    <t>90230</t>
+  </si>
+  <si>
+    <t>92821</t>
+  </si>
+  <si>
+    <t>94520</t>
+  </si>
+  <si>
+    <t>95616</t>
+  </si>
+  <si>
+    <t>92879</t>
+  </si>
+  <si>
+    <t>90242</t>
+  </si>
+  <si>
+    <t>91505</t>
+  </si>
+  <si>
+    <t>92009</t>
+  </si>
+  <si>
+    <t>95608</t>
+  </si>
+  <si>
+    <t>95926</t>
+  </si>
+  <si>
+    <t>92628</t>
+  </si>
+  <si>
+    <t>91724</t>
+  </si>
+  <si>
+    <t>91723</t>
+  </si>
+  <si>
+    <t>90241</t>
+  </si>
+  <si>
+    <t>91010</t>
+  </si>
+  <si>
+    <t>92243</t>
+  </si>
+  <si>
+    <t>95628</t>
+  </si>
+  <si>
+    <t>92708</t>
+  </si>
+  <si>
+    <t>92835</t>
+  </si>
+  <si>
+    <t>91733</t>
+  </si>
+  <si>
+    <t>94533</t>
+  </si>
+  <si>
+    <t>95020</t>
+  </si>
+  <si>
+    <t>92024</t>
+  </si>
+  <si>
+    <t>95630</t>
+  </si>
+  <si>
+    <t>94538</t>
+  </si>
+  <si>
+    <t>95945</t>
+  </si>
+  <si>
+    <t>91436</t>
+  </si>
+  <si>
+    <t>92025</t>
+  </si>
+  <si>
+    <t>95501</t>
+  </si>
+  <si>
+    <t>92610</t>
+  </si>
+  <si>
+    <t>93726</t>
+  </si>
+  <si>
+    <t>93720</t>
+  </si>
+  <si>
+    <t>93710</t>
+  </si>
+  <si>
+    <t>92345</t>
+  </si>
+  <si>
+    <t>90301</t>
+  </si>
+  <si>
+    <t>92618</t>
+  </si>
+  <si>
+    <t>94904</t>
+  </si>
+  <si>
+    <t>92037</t>
+  </si>
+  <si>
+    <t>90813</t>
+  </si>
+  <si>
+    <t>90806</t>
+  </si>
+  <si>
+    <t>90020</t>
+  </si>
+  <si>
+    <t>95032</t>
+  </si>
+  <si>
+    <t>91942</t>
+  </si>
+  <si>
+    <t>92653</t>
+  </si>
+  <si>
+    <t>95340</t>
+  </si>
+  <si>
+    <t>95348</t>
+  </si>
+  <si>
+    <t>92354</t>
+  </si>
+  <si>
+    <t>90048</t>
+  </si>
+  <si>
+    <t>92691</t>
+  </si>
+  <si>
+    <t>95350</t>
+  </si>
+  <si>
+    <t>91321</t>
+  </si>
+  <si>
+    <t>91324</t>
+  </si>
+  <si>
+    <t>92868</t>
+  </si>
+  <si>
+    <t>92663</t>
+  </si>
+  <si>
+    <t>93940</t>
+  </si>
+  <si>
+    <t>92860</t>
+  </si>
+  <si>
+    <t>94945</t>
+  </si>
+  <si>
+    <t>94621</t>
+  </si>
+  <si>
+    <t>94609</t>
+  </si>
+  <si>
+    <t>92865</t>
+  </si>
+  <si>
+    <t>95966</t>
+  </si>
+  <si>
+    <t>94040</t>
+  </si>
+  <si>
+    <t>92562</t>
+  </si>
+  <si>
+    <t>91764</t>
+  </si>
+  <si>
+    <t>92211</t>
+  </si>
+  <si>
+    <t>91105</t>
+  </si>
+  <si>
+    <t>91767</t>
+  </si>
+  <si>
+    <t>96001</t>
+  </si>
+  <si>
+    <t>91335</t>
+  </si>
+  <si>
+    <t>94806</t>
+  </si>
+  <si>
+    <t>92270</t>
+  </si>
+  <si>
+    <t>92374</t>
+  </si>
+  <si>
+    <t>92506</t>
+  </si>
+  <si>
+    <t>92504</t>
+  </si>
+  <si>
+    <t>96080</t>
+  </si>
+  <si>
+    <t>94053</t>
+  </si>
+  <si>
+    <t>95661</t>
+  </si>
+  <si>
+    <t>95815</t>
+  </si>
+  <si>
+    <t>95823</t>
+  </si>
+  <si>
+    <t>95816</t>
+  </si>
+  <si>
+    <t>95817</t>
+  </si>
+  <si>
+    <t>95841</t>
+  </si>
+  <si>
+    <t>93901</t>
+  </si>
+  <si>
+    <t>92117</t>
+  </si>
+  <si>
+    <t>92123</t>
+  </si>
+  <si>
+    <t>92121</t>
+  </si>
+  <si>
+    <t>92103</t>
+  </si>
+  <si>
+    <t>92115</t>
+  </si>
+  <si>
+    <t>94118</t>
+  </si>
+  <si>
+    <t>94107</t>
+  </si>
+  <si>
+    <t>94158</t>
+  </si>
+  <si>
+    <t>94117</t>
+  </si>
+  <si>
+    <t>95128</t>
+  </si>
+  <si>
+    <t>94901</t>
+  </si>
+  <si>
+    <t>94143</t>
+  </si>
+  <si>
+    <t>94103</t>
+  </si>
+  <si>
+    <t>93401</t>
+  </si>
+  <si>
+    <t>93105</t>
+  </si>
+  <si>
+    <t>95125</t>
+  </si>
+  <si>
+    <t>95062</t>
+  </si>
+  <si>
+    <t>92078</t>
+  </si>
+  <si>
+    <t>93454</t>
+  </si>
+  <si>
+    <t>94401</t>
+  </si>
+  <si>
+    <t>90404</t>
+  </si>
+  <si>
+    <t>95405</t>
+  </si>
+  <si>
+    <t>95404</t>
+  </si>
+  <si>
+    <t>90755</t>
+  </si>
+  <si>
+    <t>95370</t>
+  </si>
+  <si>
+    <t>95204</t>
+  </si>
+  <si>
+    <t>92592</t>
+  </si>
+  <si>
+    <t>93465</t>
+  </si>
+  <si>
+    <t>91360</t>
+  </si>
+  <si>
+    <t>90501</t>
+  </si>
+  <si>
+    <t>90505</t>
+  </si>
+  <si>
+    <t>95304</t>
+  </si>
+  <si>
+    <t>95382</t>
+  </si>
+  <si>
+    <t>91355</t>
+  </si>
+  <si>
+    <t>94589</t>
+  </si>
+  <si>
+    <t>91401</t>
+  </si>
+  <si>
+    <t>93003</t>
+  </si>
+  <si>
+    <t>92081</t>
+  </si>
+  <si>
+    <t>90601</t>
+  </si>
+  <si>
+    <t>90606</t>
   </si>
   <si>
     <t>(626) 431-2890</t>
@@ -3042,7 +3447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3105,17 +3510,17 @@
       <c r="D2" t="s">
         <v>384</v>
       </c>
-      <c r="E2">
-        <v>91006</v>
+      <c r="E2" t="s">
+        <v>385</v>
       </c>
       <c r="F2" t="s">
-        <v>385</v>
+        <v>520</v>
       </c>
       <c r="G2" t="s">
-        <v>540</v>
+        <v>675</v>
       </c>
       <c r="H2" t="s">
-        <v>652</v>
+        <v>787</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3131,14 +3536,14 @@
       <c r="D3" t="s">
         <v>384</v>
       </c>
-      <c r="E3">
-        <v>95602</v>
+      <c r="E3" t="s">
+        <v>386</v>
       </c>
       <c r="F3" t="s">
-        <v>386</v>
+        <v>521</v>
       </c>
       <c r="H3" t="s">
-        <v>653</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3154,26 +3559,26 @@
       <c r="D4" t="s">
         <v>384</v>
       </c>
-      <c r="E4">
-        <v>92656</v>
+      <c r="E4" t="s">
+        <v>387</v>
       </c>
       <c r="F4" t="s">
-        <v>387</v>
+        <v>522</v>
       </c>
       <c r="H4" t="s">
-        <v>654</v>
+        <v>789</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>722</v>
+        <v>857</v>
       </c>
       <c r="J4" t="s">
-        <v>774</v>
+        <v>909</v>
       </c>
       <c r="K4" t="s">
-        <v>843</v>
+        <v>978</v>
       </c>
       <c r="L4" t="s">
-        <v>871</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3189,20 +3594,20 @@
       <c r="D5" t="s">
         <v>384</v>
       </c>
-      <c r="E5">
-        <v>93420</v>
+      <c r="E5" t="s">
+        <v>388</v>
       </c>
       <c r="F5" t="s">
-        <v>388</v>
+        <v>523</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>657</v>
+        <v>792</v>
       </c>
       <c r="J5" t="s">
-        <v>775</v>
+        <v>910</v>
       </c>
       <c r="K5" t="s">
-        <v>844</v>
+        <v>979</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3218,20 +3623,20 @@
       <c r="D6" t="s">
         <v>384</v>
       </c>
-      <c r="E6">
-        <v>93301</v>
+      <c r="E6" t="s">
+        <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>389</v>
+        <v>524</v>
       </c>
       <c r="G6" t="s">
-        <v>541</v>
+        <v>676</v>
       </c>
       <c r="H6" t="s">
-        <v>655</v>
+        <v>790</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>723</v>
+        <v>858</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3247,17 +3652,17 @@
       <c r="D7" t="s">
         <v>384</v>
       </c>
-      <c r="E7">
-        <v>94531</v>
+      <c r="E7" t="s">
+        <v>390</v>
       </c>
       <c r="F7" t="s">
-        <v>390</v>
+        <v>525</v>
       </c>
       <c r="G7" t="s">
-        <v>542</v>
+        <v>677</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3273,17 +3678,17 @@
       <c r="D8" t="s">
         <v>384</v>
       </c>
-      <c r="E8">
-        <v>92307</v>
+      <c r="E8" t="s">
+        <v>391</v>
       </c>
       <c r="F8" t="s">
-        <v>391</v>
+        <v>526</v>
       </c>
       <c r="G8" t="s">
-        <v>543</v>
+        <v>678</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3299,26 +3704,26 @@
       <c r="D9" t="s">
         <v>384</v>
       </c>
-      <c r="E9">
-        <v>91006</v>
+      <c r="E9" t="s">
+        <v>385</v>
       </c>
       <c r="F9" t="s">
-        <v>392</v>
+        <v>527</v>
       </c>
       <c r="G9" t="s">
-        <v>544</v>
+        <v>679</v>
       </c>
       <c r="H9" t="s">
-        <v>656</v>
+        <v>791</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>724</v>
+        <v>859</v>
       </c>
       <c r="J9" t="s">
-        <v>776</v>
+        <v>911</v>
       </c>
       <c r="K9" t="s">
-        <v>845</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3334,23 +3739,23 @@
       <c r="D10" t="s">
         <v>384</v>
       </c>
-      <c r="E10">
-        <v>93422</v>
+      <c r="E10" t="s">
+        <v>392</v>
       </c>
       <c r="F10" t="s">
-        <v>393</v>
+        <v>528</v>
       </c>
       <c r="G10" t="s">
-        <v>545</v>
+        <v>680</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>657</v>
+        <v>792</v>
       </c>
       <c r="J10" t="s">
-        <v>775</v>
+        <v>910</v>
       </c>
       <c r="K10" t="s">
-        <v>844</v>
+        <v>979</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3366,23 +3771,23 @@
       <c r="D11" t="s">
         <v>384</v>
       </c>
-      <c r="E11">
-        <v>95603</v>
+      <c r="E11" t="s">
+        <v>393</v>
       </c>
       <c r="F11" t="s">
-        <v>394</v>
+        <v>529</v>
       </c>
       <c r="G11" t="s">
-        <v>546</v>
+        <v>681</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
       <c r="K11" t="s">
-        <v>846</v>
+        <v>981</v>
       </c>
       <c r="L11" t="s">
-        <v>872</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3398,20 +3803,20 @@
       <c r="D12" t="s">
         <v>384</v>
       </c>
-      <c r="E12">
-        <v>93313</v>
+      <c r="E12" t="s">
+        <v>394</v>
       </c>
       <c r="F12" t="s">
-        <v>395</v>
+        <v>530</v>
       </c>
       <c r="G12" t="s">
-        <v>547</v>
+        <v>682</v>
       </c>
       <c r="H12" t="s">
-        <v>659</v>
+        <v>794</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>725</v>
+        <v>860</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3427,14 +3832,14 @@
       <c r="D13" t="s">
         <v>384</v>
       </c>
-      <c r="E13">
-        <v>93301</v>
+      <c r="E13" t="s">
+        <v>389</v>
       </c>
       <c r="F13" t="s">
-        <v>396</v>
+        <v>531</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>726</v>
+        <v>861</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -3450,20 +3855,20 @@
       <c r="D14" t="s">
         <v>384</v>
       </c>
-      <c r="E14">
-        <v>95928</v>
+      <c r="E14" t="s">
+        <v>395</v>
       </c>
       <c r="F14" t="s">
-        <v>397</v>
+        <v>532</v>
       </c>
       <c r="G14" t="s">
-        <v>548</v>
+        <v>683</v>
       </c>
       <c r="H14" t="s">
-        <v>660</v>
+        <v>795</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>727</v>
+        <v>862</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -3479,14 +3884,14 @@
       <c r="D15" t="s">
         <v>384</v>
       </c>
-      <c r="E15">
-        <v>91911</v>
+      <c r="E15" t="s">
+        <v>396</v>
       </c>
       <c r="F15" t="s">
-        <v>398</v>
+        <v>533</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -3502,20 +3907,20 @@
       <c r="D16" t="s">
         <v>384</v>
       </c>
-      <c r="E16">
-        <v>90230</v>
+      <c r="E16" t="s">
+        <v>397</v>
       </c>
       <c r="F16" t="s">
-        <v>399</v>
+        <v>534</v>
       </c>
       <c r="G16" t="s">
-        <v>549</v>
+        <v>684</v>
       </c>
       <c r="H16" t="s">
-        <v>661</v>
+        <v>796</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>728</v>
+        <v>863</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3531,26 +3936,26 @@
       <c r="D17" t="s">
         <v>384</v>
       </c>
-      <c r="E17">
-        <v>92821</v>
+      <c r="E17" t="s">
+        <v>398</v>
       </c>
       <c r="F17" t="s">
-        <v>400</v>
+        <v>535</v>
       </c>
       <c r="G17" t="s">
-        <v>550</v>
+        <v>685</v>
       </c>
       <c r="H17" t="s">
-        <v>662</v>
+        <v>797</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>729</v>
+        <v>864</v>
       </c>
       <c r="J17" t="s">
-        <v>777</v>
+        <v>912</v>
       </c>
       <c r="K17" t="s">
-        <v>847</v>
+        <v>982</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3566,20 +3971,20 @@
       <c r="D18" t="s">
         <v>384</v>
       </c>
-      <c r="E18">
-        <v>94520</v>
+      <c r="E18" t="s">
+        <v>399</v>
       </c>
       <c r="F18" t="s">
-        <v>401</v>
+        <v>536</v>
       </c>
       <c r="G18" t="s">
-        <v>551</v>
+        <v>686</v>
       </c>
       <c r="H18" t="s">
-        <v>663</v>
+        <v>798</v>
       </c>
       <c r="J18" t="s">
-        <v>778</v>
+        <v>913</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3595,14 +4000,14 @@
       <c r="D19" t="s">
         <v>384</v>
       </c>
-      <c r="E19">
-        <v>95616</v>
+      <c r="E19" t="s">
+        <v>400</v>
       </c>
       <c r="F19" t="s">
-        <v>402</v>
+        <v>537</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3618,17 +4023,17 @@
       <c r="D20" t="s">
         <v>384</v>
       </c>
-      <c r="E20">
-        <v>92879</v>
+      <c r="E20" t="s">
+        <v>401</v>
       </c>
       <c r="F20" t="s">
-        <v>403</v>
+        <v>538</v>
       </c>
       <c r="G20" t="s">
-        <v>552</v>
+        <v>687</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3644,17 +4049,17 @@
       <c r="D21" t="s">
         <v>384</v>
       </c>
-      <c r="E21">
-        <v>90242</v>
+      <c r="E21" t="s">
+        <v>402</v>
       </c>
       <c r="F21" t="s">
-        <v>404</v>
+        <v>539</v>
       </c>
       <c r="G21" t="s">
-        <v>553</v>
+        <v>688</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3670,14 +4075,14 @@
       <c r="D22" t="s">
         <v>384</v>
       </c>
-      <c r="E22">
-        <v>91505</v>
+      <c r="E22" t="s">
+        <v>403</v>
       </c>
       <c r="F22" t="s">
-        <v>405</v>
+        <v>540</v>
       </c>
       <c r="G22" t="s">
-        <v>553</v>
+        <v>688</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3693,20 +4098,20 @@
       <c r="D23" t="s">
         <v>384</v>
       </c>
-      <c r="E23">
-        <v>92009</v>
+      <c r="E23" t="s">
+        <v>404</v>
       </c>
       <c r="F23" t="s">
-        <v>406</v>
+        <v>541</v>
       </c>
       <c r="G23" t="s">
-        <v>554</v>
+        <v>689</v>
       </c>
       <c r="H23" t="s">
-        <v>664</v>
+        <v>799</v>
       </c>
       <c r="J23" t="s">
-        <v>779</v>
+        <v>914</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3722,17 +4127,17 @@
       <c r="D24" t="s">
         <v>384</v>
       </c>
-      <c r="E24">
-        <v>95608</v>
+      <c r="E24" t="s">
+        <v>405</v>
       </c>
       <c r="F24" t="s">
-        <v>407</v>
+        <v>542</v>
       </c>
       <c r="H24" t="s">
-        <v>665</v>
+        <v>800</v>
       </c>
       <c r="J24" t="s">
-        <v>780</v>
+        <v>915</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3748,23 +4153,23 @@
       <c r="D25" t="s">
         <v>384</v>
       </c>
-      <c r="E25">
-        <v>95926</v>
+      <c r="E25" t="s">
+        <v>406</v>
       </c>
       <c r="F25" t="s">
-        <v>408</v>
+        <v>543</v>
       </c>
       <c r="G25" t="s">
-        <v>555</v>
+        <v>690</v>
       </c>
       <c r="H25" t="s">
-        <v>666</v>
+        <v>801</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>730</v>
+        <v>865</v>
       </c>
       <c r="J25" t="s">
-        <v>781</v>
+        <v>916</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3780,20 +4185,20 @@
       <c r="D26" t="s">
         <v>384</v>
       </c>
-      <c r="E26">
-        <v>92628</v>
+      <c r="E26" t="s">
+        <v>407</v>
       </c>
       <c r="F26" t="s">
-        <v>409</v>
+        <v>544</v>
       </c>
       <c r="G26" t="s">
-        <v>556</v>
+        <v>691</v>
       </c>
       <c r="H26" t="s">
-        <v>667</v>
+        <v>802</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>731</v>
+        <v>866</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3809,17 +4214,17 @@
       <c r="D27" t="s">
         <v>384</v>
       </c>
-      <c r="E27">
-        <v>91724</v>
+      <c r="E27" t="s">
+        <v>408</v>
       </c>
       <c r="F27" t="s">
-        <v>410</v>
+        <v>545</v>
       </c>
       <c r="G27" t="s">
-        <v>557</v>
+        <v>692</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3835,17 +4240,17 @@
       <c r="D28" t="s">
         <v>384</v>
       </c>
-      <c r="E28">
-        <v>91723</v>
+      <c r="E28" t="s">
+        <v>409</v>
       </c>
       <c r="F28" t="s">
-        <v>411</v>
+        <v>546</v>
       </c>
       <c r="H28" t="s">
-        <v>668</v>
+        <v>803</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>732</v>
+        <v>867</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3861,17 +4266,17 @@
       <c r="D29" t="s">
         <v>384</v>
       </c>
-      <c r="E29">
-        <v>90241</v>
+      <c r="E29" t="s">
+        <v>410</v>
       </c>
       <c r="F29" t="s">
-        <v>412</v>
+        <v>547</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>724</v>
+        <v>859</v>
       </c>
       <c r="J29" t="s">
-        <v>782</v>
+        <v>917</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3887,23 +4292,23 @@
       <c r="D30" t="s">
         <v>384</v>
       </c>
-      <c r="E30">
-        <v>91010</v>
+      <c r="E30" t="s">
+        <v>411</v>
       </c>
       <c r="F30" t="s">
-        <v>413</v>
+        <v>548</v>
       </c>
       <c r="G30" t="s">
-        <v>558</v>
+        <v>693</v>
       </c>
       <c r="H30" t="s">
-        <v>661</v>
+        <v>796</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>728</v>
+        <v>863</v>
       </c>
       <c r="J30" t="s">
-        <v>783</v>
+        <v>918</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3919,14 +4324,14 @@
       <c r="D31" t="s">
         <v>384</v>
       </c>
-      <c r="E31">
-        <v>92243</v>
+      <c r="E31" t="s">
+        <v>412</v>
       </c>
       <c r="F31" t="s">
-        <v>414</v>
+        <v>549</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3942,14 +4347,14 @@
       <c r="D32" t="s">
         <v>384</v>
       </c>
-      <c r="E32">
-        <v>95628</v>
+      <c r="E32" t="s">
+        <v>413</v>
       </c>
       <c r="F32" t="s">
-        <v>415</v>
+        <v>550</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3965,17 +4370,17 @@
       <c r="D33" t="s">
         <v>384</v>
       </c>
-      <c r="E33">
-        <v>92708</v>
+      <c r="E33" t="s">
+        <v>414</v>
       </c>
       <c r="F33" t="s">
-        <v>416</v>
+        <v>551</v>
       </c>
       <c r="H33" t="s">
-        <v>669</v>
+        <v>804</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>733</v>
+        <v>868</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3991,20 +4396,20 @@
       <c r="D34" t="s">
         <v>384</v>
       </c>
-      <c r="E34">
-        <v>92835</v>
+      <c r="E34" t="s">
+        <v>415</v>
       </c>
       <c r="F34" t="s">
-        <v>417</v>
+        <v>552</v>
       </c>
       <c r="H34" t="s">
-        <v>669</v>
+        <v>804</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>733</v>
+        <v>868</v>
       </c>
       <c r="J34" t="s">
-        <v>784</v>
+        <v>919</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4020,17 +4425,17 @@
       <c r="D35" t="s">
         <v>384</v>
       </c>
-      <c r="E35">
-        <v>91733</v>
+      <c r="E35" t="s">
+        <v>416</v>
       </c>
       <c r="F35" t="s">
-        <v>418</v>
+        <v>553</v>
       </c>
       <c r="H35" t="s">
-        <v>670</v>
+        <v>805</v>
       </c>
       <c r="I35" t="s">
-        <v>734</v>
+        <v>869</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4046,20 +4451,20 @@
       <c r="D36" t="s">
         <v>384</v>
       </c>
-      <c r="E36">
-        <v>94533</v>
+      <c r="E36" t="s">
+        <v>417</v>
       </c>
       <c r="F36" t="s">
-        <v>419</v>
+        <v>554</v>
       </c>
       <c r="G36" t="s">
-        <v>559</v>
+        <v>694</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
       <c r="J36" t="s">
-        <v>785</v>
+        <v>920</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4083,20 +4488,20 @@
       <c r="D38" t="s">
         <v>384</v>
       </c>
-      <c r="E38">
-        <v>95020</v>
+      <c r="E38" t="s">
+        <v>418</v>
       </c>
       <c r="F38" t="s">
-        <v>420</v>
+        <v>555</v>
       </c>
       <c r="G38" t="s">
-        <v>560</v>
+        <v>695</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
       <c r="J38" t="s">
-        <v>786</v>
+        <v>921</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4120,8 +4525,8 @@
       <c r="D40" t="s">
         <v>384</v>
       </c>
-      <c r="E40">
-        <v>92024</v>
+      <c r="E40" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -4137,17 +4542,17 @@
       <c r="D41" t="s">
         <v>384</v>
       </c>
-      <c r="E41">
-        <v>95630</v>
+      <c r="E41" t="s">
+        <v>420</v>
       </c>
       <c r="F41" t="s">
-        <v>421</v>
+        <v>556</v>
       </c>
       <c r="G41" t="s">
-        <v>561</v>
+        <v>696</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -4163,14 +4568,14 @@
       <c r="D42" t="s">
         <v>384</v>
       </c>
-      <c r="E42">
-        <v>94538</v>
+      <c r="E42" t="s">
+        <v>421</v>
       </c>
       <c r="F42" t="s">
-        <v>422</v>
+        <v>557</v>
       </c>
       <c r="H42" t="s">
-        <v>671</v>
+        <v>806</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -4186,17 +4591,17 @@
       <c r="D43" t="s">
         <v>384</v>
       </c>
-      <c r="E43">
-        <v>95945</v>
+      <c r="E43" t="s">
+        <v>422</v>
       </c>
       <c r="F43" t="s">
-        <v>423</v>
+        <v>558</v>
       </c>
       <c r="G43" t="s">
-        <v>562</v>
+        <v>697</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -4212,17 +4617,17 @@
       <c r="D44" t="s">
         <v>384</v>
       </c>
-      <c r="E44">
-        <v>91436</v>
+      <c r="E44" t="s">
+        <v>423</v>
       </c>
       <c r="F44" t="s">
-        <v>424</v>
+        <v>559</v>
       </c>
       <c r="G44" t="s">
-        <v>563</v>
+        <v>698</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -4238,17 +4643,17 @@
       <c r="D45" t="s">
         <v>384</v>
       </c>
-      <c r="E45">
-        <v>92025</v>
+      <c r="E45" t="s">
+        <v>424</v>
       </c>
       <c r="F45" t="s">
-        <v>425</v>
+        <v>560</v>
       </c>
       <c r="G45" t="s">
-        <v>564</v>
+        <v>699</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -4264,17 +4669,17 @@
       <c r="D46" t="s">
         <v>384</v>
       </c>
-      <c r="E46">
-        <v>95501</v>
+      <c r="E46" t="s">
+        <v>425</v>
       </c>
       <c r="F46" t="s">
-        <v>426</v>
+        <v>561</v>
       </c>
       <c r="G46" t="s">
-        <v>565</v>
+        <v>700</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -4290,23 +4695,23 @@
       <c r="D47" t="s">
         <v>384</v>
       </c>
-      <c r="E47">
-        <v>92610</v>
+      <c r="E47" t="s">
+        <v>426</v>
       </c>
       <c r="F47" t="s">
-        <v>427</v>
+        <v>562</v>
       </c>
       <c r="G47" t="s">
-        <v>566</v>
+        <v>701</v>
       </c>
       <c r="H47" t="s">
-        <v>672</v>
+        <v>807</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>735</v>
+        <v>870</v>
       </c>
       <c r="J47" t="s">
-        <v>787</v>
+        <v>922</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4322,17 +4727,17 @@
       <c r="D48" t="s">
         <v>384</v>
       </c>
-      <c r="E48">
-        <v>93726</v>
+      <c r="E48" t="s">
+        <v>427</v>
       </c>
       <c r="F48" t="s">
-        <v>428</v>
+        <v>563</v>
       </c>
       <c r="G48" t="s">
-        <v>567</v>
+        <v>702</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -4348,17 +4753,17 @@
       <c r="D49" t="s">
         <v>384</v>
       </c>
-      <c r="E49">
-        <v>93720</v>
+      <c r="E49" t="s">
+        <v>428</v>
       </c>
       <c r="F49" t="s">
-        <v>429</v>
+        <v>564</v>
       </c>
       <c r="G49" t="s">
-        <v>568</v>
+        <v>703</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -4374,20 +4779,20 @@
       <c r="D50" t="s">
         <v>384</v>
       </c>
-      <c r="E50">
-        <v>93710</v>
+      <c r="E50" t="s">
+        <v>429</v>
       </c>
       <c r="F50" t="s">
-        <v>430</v>
+        <v>565</v>
       </c>
       <c r="G50" t="s">
-        <v>569</v>
+        <v>704</v>
       </c>
       <c r="H50" t="s">
-        <v>673</v>
+        <v>808</v>
       </c>
       <c r="I50" t="s">
-        <v>736</v>
+        <v>871</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -4403,26 +4808,26 @@
       <c r="D51" t="s">
         <v>384</v>
       </c>
-      <c r="E51">
-        <v>95945</v>
+      <c r="E51" t="s">
+        <v>422</v>
       </c>
       <c r="F51" t="s">
-        <v>431</v>
+        <v>566</v>
       </c>
       <c r="G51" t="s">
-        <v>570</v>
+        <v>705</v>
       </c>
       <c r="H51" t="s">
-        <v>653</v>
+        <v>788</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>737</v>
+        <v>872</v>
       </c>
       <c r="J51" t="s">
-        <v>788</v>
+        <v>923</v>
       </c>
       <c r="K51" t="s">
-        <v>848</v>
+        <v>983</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -4438,23 +4843,23 @@
       <c r="D52" t="s">
         <v>384</v>
       </c>
-      <c r="E52">
-        <v>92345</v>
+      <c r="E52" t="s">
+        <v>430</v>
       </c>
       <c r="F52" t="s">
-        <v>432</v>
+        <v>567</v>
       </c>
       <c r="G52" t="s">
-        <v>571</v>
+        <v>706</v>
       </c>
       <c r="H52" t="s">
-        <v>674</v>
+        <v>809</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>738</v>
+        <v>873</v>
       </c>
       <c r="J52" t="s">
-        <v>789</v>
+        <v>924</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4470,23 +4875,23 @@
       <c r="D53" t="s">
         <v>384</v>
       </c>
-      <c r="E53">
-        <v>90301</v>
+      <c r="E53" t="s">
+        <v>431</v>
       </c>
       <c r="F53" t="s">
-        <v>433</v>
+        <v>568</v>
       </c>
       <c r="G53" t="s">
-        <v>572</v>
+        <v>707</v>
       </c>
       <c r="H53" t="s">
-        <v>675</v>
+        <v>810</v>
       </c>
       <c r="J53" t="s">
-        <v>790</v>
+        <v>925</v>
       </c>
       <c r="K53" t="s">
-        <v>849</v>
+        <v>984</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4502,20 +4907,20 @@
       <c r="D54" t="s">
         <v>384</v>
       </c>
-      <c r="E54">
-        <v>92618</v>
+      <c r="E54" t="s">
+        <v>432</v>
       </c>
       <c r="F54" t="s">
-        <v>434</v>
+        <v>569</v>
       </c>
       <c r="G54" t="s">
-        <v>573</v>
+        <v>708</v>
       </c>
       <c r="H54" t="s">
-        <v>676</v>
+        <v>811</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>739</v>
+        <v>874</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4531,23 +4936,23 @@
       <c r="D55" t="s">
         <v>384</v>
       </c>
-      <c r="E55">
-        <v>94904</v>
+      <c r="E55" t="s">
+        <v>433</v>
       </c>
       <c r="F55" t="s">
-        <v>435</v>
+        <v>570</v>
       </c>
       <c r="G55" t="s">
-        <v>574</v>
+        <v>709</v>
       </c>
       <c r="H55" t="s">
-        <v>677</v>
+        <v>812</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>740</v>
+        <v>875</v>
       </c>
       <c r="J55" t="s">
-        <v>791</v>
+        <v>926</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4563,17 +4968,17 @@
       <c r="D56" t="s">
         <v>384</v>
       </c>
-      <c r="E56">
-        <v>92037</v>
+      <c r="E56" t="s">
+        <v>434</v>
       </c>
       <c r="F56" t="s">
-        <v>436</v>
+        <v>571</v>
       </c>
       <c r="G56" t="s">
-        <v>575</v>
+        <v>710</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4589,17 +4994,17 @@
       <c r="D57" t="s">
         <v>384</v>
       </c>
-      <c r="E57">
-        <v>90813</v>
+      <c r="E57" t="s">
+        <v>435</v>
       </c>
       <c r="F57" t="s">
-        <v>437</v>
+        <v>572</v>
       </c>
       <c r="G57" t="s">
-        <v>576</v>
+        <v>711</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4615,26 +5020,26 @@
       <c r="D58" t="s">
         <v>384</v>
       </c>
-      <c r="E58">
-        <v>90806</v>
+      <c r="E58" t="s">
+        <v>436</v>
       </c>
       <c r="F58" t="s">
-        <v>438</v>
+        <v>573</v>
       </c>
       <c r="H58" t="s">
-        <v>678</v>
+        <v>813</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>724</v>
+        <v>859</v>
       </c>
       <c r="J58" t="s">
-        <v>792</v>
+        <v>927</v>
       </c>
       <c r="K58" t="s">
-        <v>850</v>
+        <v>985</v>
       </c>
       <c r="L58" t="s">
-        <v>873</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4650,26 +5055,26 @@
       <c r="D59" t="s">
         <v>384</v>
       </c>
-      <c r="E59">
-        <v>90020</v>
+      <c r="E59" t="s">
+        <v>437</v>
       </c>
       <c r="F59" t="s">
-        <v>439</v>
+        <v>574</v>
       </c>
       <c r="H59" t="s">
-        <v>679</v>
+        <v>814</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>741</v>
+        <v>876</v>
       </c>
       <c r="J59" t="s">
-        <v>793</v>
+        <v>928</v>
       </c>
       <c r="K59" t="s">
-        <v>851</v>
+        <v>986</v>
       </c>
       <c r="L59" t="s">
-        <v>874</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4685,23 +5090,23 @@
       <c r="D60" t="s">
         <v>384</v>
       </c>
-      <c r="E60">
-        <v>95032</v>
+      <c r="E60" t="s">
+        <v>438</v>
       </c>
       <c r="F60" t="s">
-        <v>440</v>
+        <v>575</v>
       </c>
       <c r="G60" t="s">
-        <v>577</v>
+        <v>712</v>
       </c>
       <c r="H60" t="s">
-        <v>680</v>
+        <v>815</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>742</v>
+        <v>877</v>
       </c>
       <c r="J60" t="s">
-        <v>794</v>
+        <v>929</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4717,11 +5122,11 @@
       <c r="D61" t="s">
         <v>384</v>
       </c>
-      <c r="E61">
-        <v>91942</v>
+      <c r="E61" t="s">
+        <v>439</v>
       </c>
       <c r="F61" t="s">
-        <v>441</v>
+        <v>576</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4748,20 +5153,20 @@
       <c r="D63" t="s">
         <v>384</v>
       </c>
-      <c r="E63">
-        <v>92618</v>
+      <c r="E63" t="s">
+        <v>432</v>
       </c>
       <c r="F63" t="s">
-        <v>442</v>
+        <v>577</v>
       </c>
       <c r="G63" t="s">
-        <v>578</v>
+        <v>713</v>
       </c>
       <c r="H63" t="s">
-        <v>681</v>
+        <v>816</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>743</v>
+        <v>878</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4777,17 +5182,17 @@
       <c r="D64" t="s">
         <v>384</v>
       </c>
-      <c r="E64">
-        <v>92653</v>
+      <c r="E64" t="s">
+        <v>440</v>
       </c>
       <c r="F64" t="s">
-        <v>443</v>
+        <v>578</v>
       </c>
       <c r="G64" t="s">
-        <v>579</v>
+        <v>714</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -4803,17 +5208,17 @@
       <c r="D65" t="s">
         <v>384</v>
       </c>
-      <c r="E65">
-        <v>95340</v>
+      <c r="E65" t="s">
+        <v>441</v>
       </c>
       <c r="F65" t="s">
-        <v>444</v>
+        <v>579</v>
       </c>
       <c r="G65" t="s">
-        <v>580</v>
+        <v>715</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -4829,23 +5234,23 @@
       <c r="D66" t="s">
         <v>384</v>
       </c>
-      <c r="E66">
-        <v>95348</v>
+      <c r="E66" t="s">
+        <v>442</v>
       </c>
       <c r="F66" t="s">
-        <v>445</v>
+        <v>580</v>
       </c>
       <c r="G66" t="s">
-        <v>581</v>
+        <v>716</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>744</v>
+        <v>879</v>
       </c>
       <c r="J66" t="s">
-        <v>795</v>
+        <v>930</v>
       </c>
       <c r="K66" t="s">
-        <v>852</v>
+        <v>987</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -4856,13 +5261,13 @@
         <v>384</v>
       </c>
       <c r="H67" t="s">
-        <v>682</v>
+        <v>817</v>
       </c>
       <c r="I67" t="s">
-        <v>745</v>
+        <v>880</v>
       </c>
       <c r="J67" t="s">
-        <v>796</v>
+        <v>931</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4878,26 +5283,26 @@
       <c r="D68" t="s">
         <v>384</v>
       </c>
-      <c r="E68">
-        <v>92354</v>
+      <c r="E68" t="s">
+        <v>443</v>
       </c>
       <c r="F68" t="s">
-        <v>446</v>
+        <v>581</v>
       </c>
       <c r="H68" t="s">
-        <v>683</v>
+        <v>818</v>
       </c>
       <c r="J68" t="s">
-        <v>797</v>
+        <v>932</v>
       </c>
       <c r="K68" t="s">
-        <v>853</v>
+        <v>988</v>
       </c>
       <c r="L68" t="s">
-        <v>875</v>
+        <v>1010</v>
       </c>
       <c r="M68" t="s">
-        <v>883</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -4913,17 +5318,17 @@
       <c r="D69" t="s">
         <v>384</v>
       </c>
-      <c r="E69">
-        <v>90048</v>
+      <c r="E69" t="s">
+        <v>444</v>
       </c>
       <c r="F69" t="s">
-        <v>447</v>
+        <v>582</v>
       </c>
       <c r="G69" t="s">
-        <v>582</v>
+        <v>717</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4939,17 +5344,17 @@
       <c r="D70" t="s">
         <v>384</v>
       </c>
-      <c r="E70">
-        <v>92691</v>
+      <c r="E70" t="s">
+        <v>445</v>
       </c>
       <c r="F70" t="s">
-        <v>448</v>
+        <v>583</v>
       </c>
       <c r="H70" t="s">
-        <v>669</v>
+        <v>804</v>
       </c>
       <c r="J70" t="s">
-        <v>798</v>
+        <v>933</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4965,14 +5370,14 @@
       <c r="D71" t="s">
         <v>384</v>
       </c>
-      <c r="E71">
-        <v>92691</v>
+      <c r="E71" t="s">
+        <v>445</v>
       </c>
       <c r="F71" t="s">
-        <v>449</v>
+        <v>584</v>
       </c>
       <c r="G71" t="s">
-        <v>583</v>
+        <v>718</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4988,14 +5393,14 @@
       <c r="D72" t="s">
         <v>384</v>
       </c>
-      <c r="E72">
-        <v>95350</v>
+      <c r="E72" t="s">
+        <v>446</v>
       </c>
       <c r="F72" t="s">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="G72" t="s">
-        <v>584</v>
+        <v>719</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -5011,23 +5416,23 @@
       <c r="D73" t="s">
         <v>384</v>
       </c>
-      <c r="E73">
-        <v>91321</v>
+      <c r="E73" t="s">
+        <v>447</v>
       </c>
       <c r="F73" t="s">
-        <v>451</v>
+        <v>586</v>
       </c>
       <c r="G73" t="s">
-        <v>585</v>
+        <v>720</v>
       </c>
       <c r="H73" t="s">
-        <v>684</v>
+        <v>819</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>726</v>
+        <v>861</v>
       </c>
       <c r="J73" t="s">
-        <v>799</v>
+        <v>934</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -5043,23 +5448,23 @@
       <c r="D74" t="s">
         <v>384</v>
       </c>
-      <c r="E74">
-        <v>91324</v>
+      <c r="E74" t="s">
+        <v>448</v>
       </c>
       <c r="F74" t="s">
-        <v>452</v>
+        <v>587</v>
       </c>
       <c r="G74" t="s">
-        <v>586</v>
+        <v>721</v>
       </c>
       <c r="H74" t="s">
-        <v>685</v>
+        <v>820</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>746</v>
+        <v>881</v>
       </c>
       <c r="J74" t="s">
-        <v>800</v>
+        <v>935</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -5075,26 +5480,26 @@
       <c r="D75" t="s">
         <v>384</v>
       </c>
-      <c r="E75">
-        <v>92868</v>
+      <c r="E75" t="s">
+        <v>449</v>
       </c>
       <c r="F75" t="s">
-        <v>453</v>
+        <v>588</v>
       </c>
       <c r="G75" t="s">
-        <v>587</v>
+        <v>722</v>
       </c>
       <c r="H75" t="s">
-        <v>669</v>
+        <v>804</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>733</v>
+        <v>868</v>
       </c>
       <c r="J75" t="s">
-        <v>801</v>
+        <v>936</v>
       </c>
       <c r="K75" t="s">
-        <v>854</v>
+        <v>989</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -5110,8 +5515,8 @@
       <c r="D76" t="s">
         <v>384</v>
       </c>
-      <c r="E76">
-        <v>92663</v>
+      <c r="E76" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -5127,20 +5532,20 @@
       <c r="D77" t="s">
         <v>384</v>
       </c>
-      <c r="E77">
-        <v>95350</v>
+      <c r="E77" t="s">
+        <v>446</v>
       </c>
       <c r="F77" t="s">
-        <v>454</v>
+        <v>589</v>
       </c>
       <c r="G77" t="s">
-        <v>588</v>
+        <v>723</v>
       </c>
       <c r="H77" t="s">
-        <v>673</v>
+        <v>808</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>744</v>
+        <v>879</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -5156,20 +5561,20 @@
       <c r="D78" t="s">
         <v>384</v>
       </c>
-      <c r="E78">
-        <v>93940</v>
+      <c r="E78" t="s">
+        <v>451</v>
       </c>
       <c r="F78" t="s">
-        <v>455</v>
+        <v>590</v>
       </c>
       <c r="G78" t="s">
-        <v>589</v>
+        <v>724</v>
       </c>
       <c r="H78" t="s">
-        <v>686</v>
+        <v>821</v>
       </c>
       <c r="J78" t="s">
-        <v>802</v>
+        <v>937</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -5185,23 +5590,23 @@
       <c r="D79" t="s">
         <v>384</v>
       </c>
-      <c r="E79">
-        <v>92663</v>
+      <c r="E79" t="s">
+        <v>450</v>
       </c>
       <c r="F79" t="s">
-        <v>456</v>
+        <v>591</v>
       </c>
       <c r="G79" t="s">
-        <v>589</v>
+        <v>724</v>
       </c>
       <c r="H79" t="s">
-        <v>687</v>
+        <v>822</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>747</v>
+        <v>882</v>
       </c>
       <c r="J79" t="s">
-        <v>803</v>
+        <v>938</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -5217,17 +5622,17 @@
       <c r="D80" t="s">
         <v>384</v>
       </c>
-      <c r="E80">
-        <v>92663</v>
+      <c r="E80" t="s">
+        <v>450</v>
       </c>
       <c r="F80" t="s">
-        <v>457</v>
+        <v>592</v>
       </c>
       <c r="G80" t="s">
-        <v>590</v>
+        <v>725</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -5243,14 +5648,14 @@
       <c r="D81" t="s">
         <v>384</v>
       </c>
-      <c r="E81">
-        <v>92860</v>
+      <c r="E81" t="s">
+        <v>452</v>
       </c>
       <c r="F81" t="s">
-        <v>458</v>
+        <v>593</v>
       </c>
       <c r="G81" t="s">
-        <v>591</v>
+        <v>726</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -5266,14 +5671,14 @@
       <c r="D82" t="s">
         <v>384</v>
       </c>
-      <c r="E82">
-        <v>94945</v>
+      <c r="E82" t="s">
+        <v>453</v>
       </c>
       <c r="F82" t="s">
-        <v>459</v>
+        <v>594</v>
       </c>
       <c r="G82" t="s">
-        <v>592</v>
+        <v>727</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5289,14 +5694,14 @@
       <c r="D83" t="s">
         <v>384</v>
       </c>
-      <c r="E83">
-        <v>94621</v>
+      <c r="E83" t="s">
+        <v>454</v>
       </c>
       <c r="F83" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="G83" t="s">
-        <v>593</v>
+        <v>728</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -5312,20 +5717,20 @@
       <c r="D84" t="s">
         <v>384</v>
       </c>
-      <c r="E84">
-        <v>94609</v>
+      <c r="E84" t="s">
+        <v>455</v>
       </c>
       <c r="F84" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="G84" t="s">
-        <v>594</v>
+        <v>729</v>
       </c>
       <c r="H84" t="s">
-        <v>663</v>
+        <v>798</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>748</v>
+        <v>883</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -5341,20 +5746,20 @@
       <c r="D85" t="s">
         <v>384</v>
       </c>
-      <c r="E85">
-        <v>92865</v>
+      <c r="E85" t="s">
+        <v>456</v>
       </c>
       <c r="F85" t="s">
-        <v>462</v>
+        <v>597</v>
       </c>
       <c r="G85" t="s">
-        <v>595</v>
+        <v>730</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>749</v>
+        <v>884</v>
       </c>
       <c r="J85" t="s">
-        <v>804</v>
+        <v>939</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -5370,17 +5775,17 @@
       <c r="D86" t="s">
         <v>384</v>
       </c>
-      <c r="E86">
-        <v>95966</v>
+      <c r="E86" t="s">
+        <v>457</v>
       </c>
       <c r="F86" t="s">
-        <v>463</v>
+        <v>598</v>
       </c>
       <c r="H86" t="s">
-        <v>688</v>
+        <v>823</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>730</v>
+        <v>865</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5396,11 +5801,11 @@
       <c r="D87" t="s">
         <v>384</v>
       </c>
-      <c r="E87">
-        <v>94040</v>
+      <c r="E87" t="s">
+        <v>458</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>805</v>
+        <v>940</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5414,7 +5819,7 @@
         <v>384</v>
       </c>
       <c r="F88" t="s">
-        <v>464</v>
+        <v>599</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5430,14 +5835,14 @@
       <c r="D89" t="s">
         <v>384</v>
       </c>
-      <c r="E89">
-        <v>92562</v>
+      <c r="E89" t="s">
+        <v>459</v>
       </c>
       <c r="F89" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="G89" t="s">
-        <v>596</v>
+        <v>731</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5453,14 +5858,14 @@
       <c r="D90" t="s">
         <v>384</v>
       </c>
-      <c r="E90">
-        <v>91764</v>
+      <c r="E90" t="s">
+        <v>460</v>
       </c>
       <c r="F90" t="s">
-        <v>466</v>
+        <v>601</v>
       </c>
       <c r="G90" t="s">
-        <v>597</v>
+        <v>732</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5476,20 +5881,20 @@
       <c r="D91" t="s">
         <v>384</v>
       </c>
-      <c r="E91">
-        <v>92868</v>
+      <c r="E91" t="s">
+        <v>449</v>
       </c>
       <c r="F91" t="s">
-        <v>467</v>
+        <v>602</v>
       </c>
       <c r="H91" t="s">
-        <v>689</v>
+        <v>824</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>750</v>
+        <v>885</v>
       </c>
       <c r="J91" t="s">
-        <v>806</v>
+        <v>941</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5505,20 +5910,20 @@
       <c r="D92" t="s">
         <v>384</v>
       </c>
-      <c r="E92">
-        <v>92211</v>
+      <c r="E92" t="s">
+        <v>461</v>
       </c>
       <c r="F92" t="s">
-        <v>468</v>
+        <v>603</v>
       </c>
       <c r="H92" t="s">
-        <v>690</v>
+        <v>825</v>
       </c>
       <c r="J92" t="s">
-        <v>807</v>
+        <v>942</v>
       </c>
       <c r="K92" t="s">
-        <v>855</v>
+        <v>990</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5534,20 +5939,20 @@
       <c r="D93" t="s">
         <v>384</v>
       </c>
-      <c r="E93">
-        <v>91105</v>
+      <c r="E93" t="s">
+        <v>462</v>
       </c>
       <c r="F93" t="s">
-        <v>469</v>
+        <v>604</v>
       </c>
       <c r="H93" t="s">
-        <v>689</v>
+        <v>824</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>750</v>
+        <v>885</v>
       </c>
       <c r="J93" t="s">
-        <v>808</v>
+        <v>943</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5563,26 +5968,26 @@
       <c r="D94" t="s">
         <v>384</v>
       </c>
-      <c r="E94">
-        <v>91767</v>
+      <c r="E94" t="s">
+        <v>463</v>
       </c>
       <c r="F94" t="s">
-        <v>470</v>
+        <v>605</v>
       </c>
       <c r="G94" t="s">
-        <v>598</v>
+        <v>733</v>
       </c>
       <c r="H94" t="s">
-        <v>668</v>
+        <v>803</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>732</v>
+        <v>867</v>
       </c>
       <c r="J94" t="s">
-        <v>809</v>
+        <v>944</v>
       </c>
       <c r="K94" t="s">
-        <v>856</v>
+        <v>991</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5598,23 +6003,23 @@
       <c r="D95" t="s">
         <v>384</v>
       </c>
-      <c r="E95">
-        <v>91767</v>
+      <c r="E95" t="s">
+        <v>463</v>
       </c>
       <c r="F95" t="s">
-        <v>471</v>
+        <v>606</v>
       </c>
       <c r="G95" t="s">
-        <v>599</v>
+        <v>734</v>
       </c>
       <c r="H95" t="s">
-        <v>674</v>
+        <v>809</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>751</v>
+        <v>886</v>
       </c>
       <c r="J95" t="s">
-        <v>789</v>
+        <v>924</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5630,20 +6035,20 @@
       <c r="D96" t="s">
         <v>384</v>
       </c>
-      <c r="E96">
-        <v>96001</v>
+      <c r="E96" t="s">
+        <v>464</v>
       </c>
       <c r="F96" t="s">
-        <v>472</v>
+        <v>607</v>
       </c>
       <c r="H96" t="s">
-        <v>691</v>
+        <v>826</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>752</v>
+        <v>887</v>
       </c>
       <c r="J96" t="s">
-        <v>810</v>
+        <v>945</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5659,20 +6064,20 @@
       <c r="D97" t="s">
         <v>384</v>
       </c>
-      <c r="E97">
-        <v>96001</v>
+      <c r="E97" t="s">
+        <v>464</v>
       </c>
       <c r="F97" t="s">
-        <v>473</v>
+        <v>608</v>
       </c>
       <c r="G97" t="s">
-        <v>600</v>
+        <v>735</v>
       </c>
       <c r="H97" t="s">
-        <v>692</v>
+        <v>827</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>730</v>
+        <v>865</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5688,20 +6093,20 @@
       <c r="D98" t="s">
         <v>384</v>
       </c>
-      <c r="E98">
-        <v>91335</v>
+      <c r="E98" t="s">
+        <v>465</v>
       </c>
       <c r="F98" t="s">
-        <v>474</v>
+        <v>609</v>
       </c>
       <c r="G98" t="s">
-        <v>601</v>
+        <v>736</v>
       </c>
       <c r="H98" t="s">
-        <v>693</v>
+        <v>828</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>753</v>
+        <v>888</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5717,23 +6122,23 @@
       <c r="D99" t="s">
         <v>384</v>
       </c>
-      <c r="E99">
-        <v>94806</v>
+      <c r="E99" t="s">
+        <v>466</v>
       </c>
       <c r="F99" t="s">
-        <v>475</v>
+        <v>610</v>
       </c>
       <c r="G99" t="s">
-        <v>602</v>
+        <v>737</v>
       </c>
       <c r="H99" t="s">
-        <v>694</v>
+        <v>829</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>754</v>
+        <v>889</v>
       </c>
       <c r="J99" t="s">
-        <v>811</v>
+        <v>946</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5760,20 +6165,20 @@
       <c r="D101" t="s">
         <v>384</v>
       </c>
-      <c r="E101">
-        <v>92270</v>
+      <c r="E101" t="s">
+        <v>467</v>
       </c>
       <c r="F101" t="s">
-        <v>476</v>
+        <v>611</v>
       </c>
       <c r="G101" t="s">
-        <v>603</v>
+        <v>738</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
       <c r="K101" t="s">
-        <v>857</v>
+        <v>992</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5789,11 +6194,11 @@
       <c r="D102" t="s">
         <v>384</v>
       </c>
-      <c r="E102">
-        <v>92374</v>
+      <c r="E102" t="s">
+        <v>468</v>
       </c>
       <c r="F102" t="s">
-        <v>477</v>
+        <v>612</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5809,14 +6214,14 @@
       <c r="D103" t="s">
         <v>384</v>
       </c>
-      <c r="E103">
-        <v>92506</v>
+      <c r="E103" t="s">
+        <v>469</v>
       </c>
       <c r="G103" t="s">
-        <v>604</v>
+        <v>739</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5832,26 +6237,26 @@
       <c r="D104" t="s">
         <v>384</v>
       </c>
-      <c r="E104">
-        <v>92504</v>
+      <c r="E104" t="s">
+        <v>470</v>
       </c>
       <c r="F104" t="s">
-        <v>478</v>
+        <v>613</v>
       </c>
       <c r="G104" t="s">
-        <v>605</v>
+        <v>740</v>
       </c>
       <c r="H104" t="s">
-        <v>695</v>
+        <v>830</v>
       </c>
       <c r="I104" t="s">
-        <v>755</v>
+        <v>890</v>
       </c>
       <c r="J104" t="s">
-        <v>519</v>
+        <v>654</v>
       </c>
       <c r="K104" t="s">
-        <v>574</v>
+        <v>709</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5878,17 +6283,17 @@
       <c r="D106" t="s">
         <v>384</v>
       </c>
-      <c r="E106">
-        <v>96080</v>
+      <c r="E106" t="s">
+        <v>471</v>
       </c>
       <c r="F106" t="s">
-        <v>479</v>
+        <v>614</v>
       </c>
       <c r="H106" t="s">
-        <v>688</v>
+        <v>823</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>730</v>
+        <v>865</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5904,8 +6309,8 @@
       <c r="D107" t="s">
         <v>384</v>
       </c>
-      <c r="E107">
-        <v>96001</v>
+      <c r="E107" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5921,23 +6326,23 @@
       <c r="D108" t="s">
         <v>384</v>
       </c>
-      <c r="E108">
-        <v>92374</v>
+      <c r="E108" t="s">
+        <v>468</v>
       </c>
       <c r="F108" t="s">
-        <v>480</v>
+        <v>615</v>
       </c>
       <c r="G108" t="s">
-        <v>606</v>
+        <v>741</v>
       </c>
       <c r="H108" t="s">
-        <v>696</v>
+        <v>831</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>756</v>
+        <v>891</v>
       </c>
       <c r="J108" t="s">
-        <v>812</v>
+        <v>947</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5953,14 +6358,14 @@
       <c r="D109" t="s">
         <v>384</v>
       </c>
-      <c r="E109">
-        <v>94053</v>
+      <c r="E109" t="s">
+        <v>472</v>
       </c>
       <c r="F109" t="s">
-        <v>481</v>
+        <v>616</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>757</v>
+        <v>892</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5976,17 +6381,17 @@
       <c r="D110" t="s">
         <v>384</v>
       </c>
-      <c r="E110">
-        <v>95661</v>
+      <c r="E110" t="s">
+        <v>473</v>
       </c>
       <c r="F110" t="s">
-        <v>482</v>
+        <v>617</v>
       </c>
       <c r="G110" t="s">
-        <v>607</v>
+        <v>742</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -6002,26 +6407,26 @@
       <c r="D111" t="s">
         <v>384</v>
       </c>
-      <c r="E111">
-        <v>95661</v>
+      <c r="E111" t="s">
+        <v>473</v>
       </c>
       <c r="F111" t="s">
-        <v>483</v>
+        <v>618</v>
       </c>
       <c r="G111" t="s">
-        <v>608</v>
+        <v>743</v>
       </c>
       <c r="H111" t="s">
-        <v>697</v>
+        <v>832</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>758</v>
+        <v>893</v>
       </c>
       <c r="J111" t="s">
-        <v>813</v>
+        <v>948</v>
       </c>
       <c r="K111" t="s">
-        <v>858</v>
+        <v>993</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -6037,20 +6442,20 @@
       <c r="D112" t="s">
         <v>384</v>
       </c>
-      <c r="E112">
-        <v>95661</v>
+      <c r="E112" t="s">
+        <v>473</v>
       </c>
       <c r="F112" t="s">
-        <v>484</v>
+        <v>619</v>
       </c>
       <c r="G112" t="s">
-        <v>609</v>
+        <v>744</v>
       </c>
       <c r="H112" t="s">
-        <v>673</v>
+        <v>808</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>744</v>
+        <v>879</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6066,23 +6471,23 @@
       <c r="D113" t="s">
         <v>384</v>
       </c>
-      <c r="E113">
-        <v>95815</v>
+      <c r="E113" t="s">
+        <v>474</v>
       </c>
       <c r="F113" t="s">
-        <v>485</v>
+        <v>620</v>
       </c>
       <c r="G113" t="s">
-        <v>610</v>
+        <v>745</v>
       </c>
       <c r="H113" t="s">
-        <v>698</v>
+        <v>833</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>757</v>
+        <v>892</v>
       </c>
       <c r="J113" t="s">
-        <v>814</v>
+        <v>949</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6098,17 +6503,17 @@
       <c r="D114" t="s">
         <v>384</v>
       </c>
-      <c r="E114">
-        <v>95823</v>
+      <c r="E114" t="s">
+        <v>475</v>
       </c>
       <c r="F114" t="s">
-        <v>486</v>
+        <v>621</v>
       </c>
       <c r="G114" t="s">
-        <v>611</v>
+        <v>746</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6124,20 +6529,20 @@
       <c r="D115" t="s">
         <v>384</v>
       </c>
-      <c r="E115">
-        <v>95816</v>
+      <c r="E115" t="s">
+        <v>476</v>
       </c>
       <c r="F115" t="s">
-        <v>487</v>
+        <v>622</v>
       </c>
       <c r="G115" t="s">
-        <v>612</v>
+        <v>747</v>
       </c>
       <c r="H115" t="s">
-        <v>673</v>
+        <v>808</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>744</v>
+        <v>879</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6153,23 +6558,23 @@
       <c r="D116" t="s">
         <v>384</v>
       </c>
-      <c r="E116">
-        <v>95817</v>
+      <c r="E116" t="s">
+        <v>477</v>
       </c>
       <c r="F116" t="s">
-        <v>488</v>
+        <v>623</v>
       </c>
       <c r="G116" t="s">
-        <v>613</v>
+        <v>748</v>
       </c>
       <c r="H116" t="s">
-        <v>699</v>
+        <v>834</v>
       </c>
       <c r="J116" t="s">
-        <v>815</v>
+        <v>950</v>
       </c>
       <c r="K116" t="s">
-        <v>859</v>
+        <v>994</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6185,23 +6590,23 @@
       <c r="D117" t="s">
         <v>384</v>
       </c>
-      <c r="E117">
-        <v>95841</v>
+      <c r="E117" t="s">
+        <v>478</v>
       </c>
       <c r="F117" t="s">
-        <v>489</v>
+        <v>624</v>
       </c>
       <c r="G117" t="s">
-        <v>614</v>
+        <v>749</v>
       </c>
       <c r="H117" t="s">
-        <v>700</v>
+        <v>835</v>
       </c>
       <c r="J117" t="s">
-        <v>816</v>
+        <v>951</v>
       </c>
       <c r="K117" t="s">
-        <v>860</v>
+        <v>995</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6217,17 +6622,17 @@
       <c r="D118" t="s">
         <v>384</v>
       </c>
-      <c r="E118">
-        <v>93901</v>
+      <c r="E118" t="s">
+        <v>479</v>
       </c>
       <c r="F118" t="s">
-        <v>490</v>
+        <v>625</v>
       </c>
       <c r="G118" t="s">
-        <v>615</v>
+        <v>750</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6243,20 +6648,20 @@
       <c r="D119" t="s">
         <v>384</v>
       </c>
-      <c r="E119">
-        <v>93901</v>
+      <c r="E119" t="s">
+        <v>479</v>
       </c>
       <c r="F119" t="s">
-        <v>491</v>
+        <v>626</v>
       </c>
       <c r="G119" t="s">
-        <v>616</v>
+        <v>751</v>
       </c>
       <c r="H119" t="s">
-        <v>673</v>
+        <v>808</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>744</v>
+        <v>879</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6272,23 +6677,23 @@
       <c r="D120" t="s">
         <v>384</v>
       </c>
-      <c r="E120">
-        <v>92117</v>
+      <c r="E120" t="s">
+        <v>480</v>
       </c>
       <c r="F120" t="s">
-        <v>492</v>
+        <v>627</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>701</v>
+        <v>836</v>
       </c>
       <c r="J120" t="s">
-        <v>817</v>
+        <v>952</v>
       </c>
       <c r="K120" t="s">
-        <v>861</v>
+        <v>996</v>
       </c>
       <c r="L120" t="s">
-        <v>876</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6304,20 +6709,20 @@
       <c r="D121" t="s">
         <v>384</v>
       </c>
-      <c r="E121">
-        <v>92123</v>
+      <c r="E121" t="s">
+        <v>481</v>
       </c>
       <c r="F121" t="s">
-        <v>493</v>
+        <v>628</v>
       </c>
       <c r="H121" t="s">
-        <v>702</v>
+        <v>837</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>750</v>
+        <v>885</v>
       </c>
       <c r="J121" t="s">
-        <v>796</v>
+        <v>931</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6333,20 +6738,20 @@
       <c r="D122" t="s">
         <v>384</v>
       </c>
-      <c r="E122">
-        <v>92121</v>
+      <c r="E122" t="s">
+        <v>482</v>
       </c>
       <c r="F122" t="s">
-        <v>494</v>
+        <v>629</v>
       </c>
       <c r="G122" t="s">
-        <v>617</v>
+        <v>752</v>
       </c>
       <c r="H122" t="s">
-        <v>703</v>
+        <v>838</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>759</v>
+        <v>894</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6362,14 +6767,14 @@
       <c r="D123" t="s">
         <v>384</v>
       </c>
-      <c r="E123">
-        <v>92103</v>
+      <c r="E123" t="s">
+        <v>483</v>
       </c>
       <c r="F123" t="s">
-        <v>495</v>
+        <v>630</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6385,14 +6790,14 @@
       <c r="D124" t="s">
         <v>384</v>
       </c>
-      <c r="E124">
-        <v>92123</v>
+      <c r="E124" t="s">
+        <v>481</v>
       </c>
       <c r="F124" t="s">
-        <v>496</v>
+        <v>631</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6408,14 +6813,14 @@
       <c r="D125" t="s">
         <v>384</v>
       </c>
-      <c r="E125">
-        <v>92123</v>
+      <c r="E125" t="s">
+        <v>481</v>
       </c>
       <c r="F125" t="s">
-        <v>497</v>
+        <v>632</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6431,20 +6836,20 @@
       <c r="D126" t="s">
         <v>384</v>
       </c>
-      <c r="E126">
-        <v>92121</v>
+      <c r="E126" t="s">
+        <v>482</v>
       </c>
       <c r="F126" t="s">
-        <v>498</v>
+        <v>633</v>
       </c>
       <c r="H126" t="s">
-        <v>704</v>
+        <v>839</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>760</v>
+        <v>895</v>
       </c>
       <c r="K126" t="s">
-        <v>862</v>
+        <v>997</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6460,26 +6865,26 @@
       <c r="D127" t="s">
         <v>384</v>
       </c>
-      <c r="E127">
-        <v>92115</v>
+      <c r="E127" t="s">
+        <v>484</v>
       </c>
       <c r="F127" t="s">
-        <v>499</v>
+        <v>634</v>
       </c>
       <c r="G127" t="s">
-        <v>618</v>
+        <v>753</v>
       </c>
       <c r="H127" t="s">
-        <v>705</v>
+        <v>840</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>761</v>
+        <v>896</v>
       </c>
       <c r="J127" t="s">
-        <v>818</v>
+        <v>953</v>
       </c>
       <c r="K127" t="s">
-        <v>863</v>
+        <v>998</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6495,17 +6900,17 @@
       <c r="D128" t="s">
         <v>384</v>
       </c>
-      <c r="E128">
-        <v>94118</v>
+      <c r="E128" t="s">
+        <v>485</v>
       </c>
       <c r="F128" t="s">
-        <v>500</v>
+        <v>635</v>
       </c>
       <c r="G128" t="s">
-        <v>619</v>
+        <v>754</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6521,17 +6926,17 @@
       <c r="D129" t="s">
         <v>384</v>
       </c>
-      <c r="E129">
-        <v>94107</v>
+      <c r="E129" t="s">
+        <v>486</v>
       </c>
       <c r="F129" t="s">
-        <v>501</v>
+        <v>636</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>762</v>
+        <v>897</v>
       </c>
       <c r="J129" t="s">
-        <v>819</v>
+        <v>954</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6547,20 +6952,20 @@
       <c r="D130" t="s">
         <v>384</v>
       </c>
-      <c r="E130">
-        <v>94158</v>
+      <c r="E130" t="s">
+        <v>487</v>
       </c>
       <c r="F130" t="s">
-        <v>502</v>
+        <v>637</v>
       </c>
       <c r="G130" t="s">
-        <v>620</v>
+        <v>755</v>
       </c>
       <c r="H130" t="s">
-        <v>706</v>
+        <v>841</v>
       </c>
       <c r="J130" t="s">
-        <v>820</v>
+        <v>955</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -6576,26 +6981,26 @@
       <c r="D131" t="s">
         <v>384</v>
       </c>
-      <c r="E131">
-        <v>94158</v>
+      <c r="E131" t="s">
+        <v>487</v>
       </c>
       <c r="F131" t="s">
-        <v>502</v>
+        <v>637</v>
       </c>
       <c r="G131" t="s">
-        <v>621</v>
+        <v>756</v>
       </c>
       <c r="H131" t="s">
-        <v>706</v>
+        <v>841</v>
       </c>
       <c r="J131" t="s">
-        <v>821</v>
+        <v>956</v>
       </c>
       <c r="K131" t="s">
-        <v>864</v>
+        <v>999</v>
       </c>
       <c r="L131" t="s">
-        <v>877</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -6611,20 +7016,20 @@
       <c r="D132" t="s">
         <v>384</v>
       </c>
-      <c r="E132">
-        <v>94117</v>
+      <c r="E132" t="s">
+        <v>488</v>
       </c>
       <c r="F132" t="s">
-        <v>503</v>
+        <v>638</v>
       </c>
       <c r="H132" t="s">
-        <v>707</v>
+        <v>842</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>763</v>
+        <v>898</v>
       </c>
       <c r="J132" t="s">
-        <v>822</v>
+        <v>957</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -6640,20 +7045,20 @@
       <c r="D133" t="s">
         <v>384</v>
       </c>
-      <c r="E133">
-        <v>95128</v>
+      <c r="E133" t="s">
+        <v>489</v>
       </c>
       <c r="F133" t="s">
-        <v>504</v>
+        <v>639</v>
       </c>
       <c r="G133" t="s">
-        <v>622</v>
+        <v>757</v>
       </c>
       <c r="H133" t="s">
-        <v>673</v>
+        <v>808</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>744</v>
+        <v>879</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -6677,26 +7082,26 @@
       <c r="D135" t="s">
         <v>384</v>
       </c>
-      <c r="E135">
-        <v>94901</v>
+      <c r="E135" t="s">
+        <v>490</v>
       </c>
       <c r="F135" t="s">
-        <v>505</v>
+        <v>640</v>
       </c>
       <c r="G135" t="s">
-        <v>623</v>
+        <v>758</v>
       </c>
       <c r="H135" t="s">
-        <v>708</v>
+        <v>843</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>764</v>
+        <v>899</v>
       </c>
       <c r="J135" t="s">
-        <v>823</v>
+        <v>958</v>
       </c>
       <c r="K135" t="s">
-        <v>865</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6712,73 +7117,91 @@
       <c r="D136" t="s">
         <v>384</v>
       </c>
-      <c r="E136">
-        <v>94143</v>
+      <c r="E136" t="s">
+        <v>491</v>
       </c>
       <c r="F136" t="s">
-        <v>502</v>
+        <v>637</v>
       </c>
     </row>
     <row r="137" spans="1:14">
+      <c r="A137" t="s">
+        <v>89</v>
+      </c>
+      <c r="B137" t="s">
+        <v>237</v>
+      </c>
       <c r="D137" t="s">
         <v>384</v>
+      </c>
+      <c r="G137" t="s">
+        <v>759</v>
+      </c>
+      <c r="H137" t="s">
+        <v>841</v>
+      </c>
+      <c r="J137" t="s">
+        <v>959</v>
+      </c>
+      <c r="L137" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M137" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N137" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B138" t="s">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="C138" t="s">
+        <v>354</v>
       </c>
       <c r="D138" t="s">
         <v>384</v>
       </c>
-      <c r="G138" t="s">
-        <v>624</v>
-      </c>
-      <c r="H138" t="s">
-        <v>706</v>
-      </c>
-      <c r="J138" t="s">
-        <v>824</v>
-      </c>
-      <c r="L138" t="s">
-        <v>878</v>
-      </c>
-      <c r="M138" t="s">
-        <v>884</v>
-      </c>
-      <c r="N138" t="s">
-        <v>885</v>
+      <c r="E138" t="s">
+        <v>492</v>
+      </c>
+      <c r="F138" t="s">
+        <v>641</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" t="s">
-        <v>90</v>
-      </c>
-      <c r="B139" t="s">
-        <v>238</v>
+        <v>91</v>
       </c>
       <c r="C139" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D139" t="s">
         <v>384</v>
       </c>
-      <c r="E139">
-        <v>94103</v>
+      <c r="E139" t="s">
+        <v>493</v>
       </c>
       <c r="F139" t="s">
-        <v>506</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>765</v>
+        <v>642</v>
+      </c>
+      <c r="J139" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" t="s">
-        <v>91</v>
+        <v>19</v>
+      </c>
+      <c r="B140" t="s">
+        <v>239</v>
       </c>
       <c r="C140" t="s">
         <v>357</v>
@@ -6786,340 +7209,346 @@
       <c r="D140" t="s">
         <v>384</v>
       </c>
-      <c r="E140">
-        <v>93401</v>
+      <c r="E140" t="s">
+        <v>493</v>
       </c>
       <c r="F140" t="s">
-        <v>507</v>
-      </c>
-      <c r="J140" t="s">
-        <v>825</v>
+        <v>643</v>
       </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>239</v>
-      </c>
-      <c r="C141" t="s">
-        <v>357</v>
+        <v>240</v>
       </c>
       <c r="D141" t="s">
         <v>384</v>
       </c>
-      <c r="E141">
-        <v>93401</v>
-      </c>
-      <c r="F141" t="s">
-        <v>508</v>
+      <c r="J141" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B142" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="C142" t="s">
+        <v>358</v>
       </c>
       <c r="D142" t="s">
         <v>384</v>
       </c>
+      <c r="E142" t="s">
+        <v>494</v>
+      </c>
+      <c r="F142" t="s">
+        <v>644</v>
+      </c>
+      <c r="H142" t="s">
+        <v>844</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>901</v>
+      </c>
       <c r="J142" t="s">
-        <v>826</v>
+        <v>962</v>
+      </c>
+      <c r="K142" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L142" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C143" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D143" t="s">
         <v>384</v>
       </c>
-      <c r="E143">
-        <v>93105</v>
+      <c r="E143" t="s">
+        <v>447</v>
       </c>
       <c r="F143" t="s">
-        <v>509</v>
-      </c>
-      <c r="H143" t="s">
-        <v>709</v>
+        <v>645</v>
+      </c>
+      <c r="G143" t="s">
+        <v>760</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>766</v>
+        <v>793</v>
       </c>
       <c r="J143" t="s">
-        <v>827</v>
-      </c>
-      <c r="K143" t="s">
-        <v>866</v>
-      </c>
-      <c r="L143" t="s">
-        <v>879</v>
+        <v>963</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" t="s">
+        <v>93</v>
+      </c>
+      <c r="B144" t="s">
+        <v>243</v>
+      </c>
+      <c r="D144" t="s">
+        <v>384</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="J144" t="s">
+        <v>952</v>
+      </c>
+      <c r="K144" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L144" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M144" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" t="s">
+        <v>94</v>
+      </c>
+      <c r="B145" t="s">
+        <v>244</v>
+      </c>
+      <c r="C145" t="s">
+        <v>355</v>
+      </c>
+      <c r="D145" t="s">
+        <v>384</v>
+      </c>
+      <c r="E145" t="s">
+        <v>495</v>
+      </c>
+      <c r="F145" t="s">
+        <v>646</v>
+      </c>
+      <c r="G145" t="s">
+        <v>761</v>
+      </c>
+      <c r="H145" t="s">
+        <v>845</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="J145" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" t="s">
         <v>19</v>
       </c>
-      <c r="B144" t="s">
-        <v>242</v>
-      </c>
-      <c r="C144" t="s">
-        <v>359</v>
-      </c>
-      <c r="D144" t="s">
-        <v>384</v>
-      </c>
-      <c r="E144">
-        <v>91321</v>
-      </c>
-      <c r="F144" t="s">
-        <v>510</v>
-      </c>
-      <c r="G144" t="s">
-        <v>625</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="J144" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13">
-      <c r="A145" t="s">
-        <v>93</v>
-      </c>
-      <c r="B145" t="s">
-        <v>243</v>
-      </c>
-      <c r="D145" t="s">
-        <v>384</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="J145" t="s">
-        <v>817</v>
-      </c>
-      <c r="K145" t="s">
-        <v>867</v>
-      </c>
-      <c r="L145" t="s">
-        <v>880</v>
-      </c>
-      <c r="M145" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13">
-      <c r="A146" t="s">
-        <v>94</v>
-      </c>
       <c r="B146" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C146" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D146" t="s">
         <v>384</v>
       </c>
-      <c r="E146">
-        <v>95125</v>
+      <c r="E146" t="s">
+        <v>496</v>
       </c>
       <c r="F146" t="s">
-        <v>511</v>
+        <v>647</v>
       </c>
       <c r="G146" t="s">
-        <v>626</v>
-      </c>
-      <c r="H146" t="s">
-        <v>710</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="J146" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" t="s">
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C147" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D147" t="s">
         <v>384</v>
       </c>
-      <c r="E147">
-        <v>95062</v>
+      <c r="E147" t="s">
+        <v>497</v>
       </c>
       <c r="F147" t="s">
-        <v>512</v>
+        <v>648</v>
       </c>
       <c r="G147" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" t="s">
+        <v>86</v>
+      </c>
+      <c r="B148" t="s">
+        <v>247</v>
+      </c>
+      <c r="C148" t="s">
+        <v>362</v>
+      </c>
+      <c r="D148" t="s">
+        <v>384</v>
+      </c>
+      <c r="E148" t="s">
+        <v>498</v>
+      </c>
+      <c r="F148" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" t="s">
         <v>19</v>
       </c>
-      <c r="B148" t="s">
-        <v>246</v>
-      </c>
-      <c r="C148" t="s">
-        <v>361</v>
-      </c>
-      <c r="D148" t="s">
-        <v>384</v>
-      </c>
-      <c r="E148">
-        <v>92078</v>
-      </c>
-      <c r="F148" t="s">
-        <v>513</v>
-      </c>
-      <c r="G148" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13">
-      <c r="A149" t="s">
-        <v>86</v>
-      </c>
       <c r="B149" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C149" t="s">
+        <v>363</v>
+      </c>
+      <c r="D149" t="s">
+        <v>384</v>
+      </c>
+      <c r="E149" t="s">
+        <v>499</v>
+      </c>
+      <c r="F149" t="s">
+        <v>650</v>
+      </c>
+      <c r="G149" t="s">
+        <v>764</v>
+      </c>
+      <c r="H149" t="s">
+        <v>846</v>
+      </c>
+      <c r="I149" t="s">
+        <v>903</v>
+      </c>
+      <c r="J149" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" t="s">
+        <v>95</v>
+      </c>
+      <c r="B150" t="s">
+        <v>249</v>
+      </c>
+      <c r="C150" t="s">
         <v>362</v>
       </c>
-      <c r="D149" t="s">
-        <v>384</v>
-      </c>
-      <c r="E149">
-        <v>93454</v>
-      </c>
-      <c r="F149" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13">
-      <c r="A150" t="s">
+      <c r="D150" t="s">
+        <v>384</v>
+      </c>
+      <c r="E150" t="s">
+        <v>498</v>
+      </c>
+      <c r="F150" t="s">
+        <v>651</v>
+      </c>
+      <c r="H150" t="s">
+        <v>844</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="J150" t="s">
+        <v>962</v>
+      </c>
+      <c r="K150" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L150" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" t="s">
+        <v>96</v>
+      </c>
+      <c r="B151" t="s">
+        <v>250</v>
+      </c>
+      <c r="C151" t="s">
+        <v>364</v>
+      </c>
+      <c r="D151" t="s">
+        <v>384</v>
+      </c>
+      <c r="E151" t="s">
+        <v>500</v>
+      </c>
+      <c r="F151" t="s">
+        <v>652</v>
+      </c>
+      <c r="G151" t="s">
+        <v>765</v>
+      </c>
+      <c r="H151" t="s">
+        <v>847</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" t="s">
+        <v>97</v>
+      </c>
+      <c r="B152" t="s">
+        <v>251</v>
+      </c>
+      <c r="C152" t="s">
+        <v>365</v>
+      </c>
+      <c r="D152" t="s">
+        <v>384</v>
+      </c>
+      <c r="E152" t="s">
+        <v>501</v>
+      </c>
+      <c r="F152" t="s">
+        <v>653</v>
+      </c>
+      <c r="G152" t="s">
+        <v>766</v>
+      </c>
+      <c r="H152" t="s">
+        <v>848</v>
+      </c>
+      <c r="J152" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" t="s">
         <v>19</v>
       </c>
-      <c r="B150" t="s">
-        <v>248</v>
-      </c>
-      <c r="C150" t="s">
-        <v>363</v>
-      </c>
-      <c r="D150" t="s">
-        <v>384</v>
-      </c>
-      <c r="E150">
-        <v>94401</v>
-      </c>
-      <c r="F150" t="s">
-        <v>515</v>
-      </c>
-      <c r="G150" t="s">
-        <v>629</v>
-      </c>
-      <c r="H150" t="s">
-        <v>711</v>
-      </c>
-      <c r="I150" t="s">
-        <v>768</v>
-      </c>
-      <c r="J150" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13">
-      <c r="A151" t="s">
-        <v>95</v>
-      </c>
-      <c r="B151" t="s">
-        <v>249</v>
-      </c>
-      <c r="C151" t="s">
-        <v>362</v>
-      </c>
-      <c r="D151" t="s">
-        <v>384</v>
-      </c>
-      <c r="E151">
-        <v>93454</v>
-      </c>
-      <c r="F151" t="s">
-        <v>516</v>
-      </c>
-      <c r="H151" t="s">
-        <v>709</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="J151" t="s">
-        <v>827</v>
-      </c>
-      <c r="K151" t="s">
-        <v>866</v>
-      </c>
-      <c r="L151" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13">
-      <c r="A152" t="s">
-        <v>96</v>
-      </c>
-      <c r="B152" t="s">
-        <v>250</v>
-      </c>
-      <c r="C152" t="s">
-        <v>364</v>
-      </c>
-      <c r="D152" t="s">
-        <v>384</v>
-      </c>
-      <c r="E152">
-        <v>90404</v>
-      </c>
-      <c r="F152" t="s">
-        <v>517</v>
-      </c>
-      <c r="G152" t="s">
-        <v>630</v>
-      </c>
-      <c r="H152" t="s">
-        <v>712</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13">
-      <c r="A153" t="s">
-        <v>97</v>
-      </c>
       <c r="B153" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C153" t="s">
         <v>365</v>
@@ -7127,28 +7556,22 @@
       <c r="D153" t="s">
         <v>384</v>
       </c>
-      <c r="E153">
-        <v>95405</v>
+      <c r="E153" t="s">
+        <v>501</v>
       </c>
       <c r="F153" t="s">
-        <v>518</v>
+        <v>653</v>
       </c>
       <c r="G153" t="s">
-        <v>631</v>
-      </c>
-      <c r="H153" t="s">
-        <v>713</v>
-      </c>
-      <c r="J153" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B154" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C154" t="s">
         <v>365</v>
@@ -7156,22 +7579,28 @@
       <c r="D154" t="s">
         <v>384</v>
       </c>
-      <c r="E154">
-        <v>95405</v>
+      <c r="E154" t="s">
+        <v>501</v>
       </c>
       <c r="F154" t="s">
-        <v>518</v>
+        <v>654</v>
       </c>
       <c r="G154" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13">
+        <v>709</v>
+      </c>
+      <c r="H154" t="s">
+        <v>812</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B155" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C155" t="s">
         <v>365</v>
@@ -7179,243 +7608,240 @@
       <c r="D155" t="s">
         <v>384</v>
       </c>
-      <c r="E155">
-        <v>95405</v>
+      <c r="E155" t="s">
+        <v>502</v>
       </c>
       <c r="F155" t="s">
-        <v>519</v>
-      </c>
-      <c r="G155" t="s">
-        <v>574</v>
+        <v>655</v>
       </c>
       <c r="H155" t="s">
-        <v>677</v>
+        <v>823</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="B156" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C156" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D156" t="s">
         <v>384</v>
       </c>
-      <c r="E156">
-        <v>95404</v>
+      <c r="E156" t="s">
+        <v>503</v>
       </c>
       <c r="F156" t="s">
-        <v>520</v>
+        <v>656</v>
+      </c>
+      <c r="G156" t="s">
+        <v>768</v>
       </c>
       <c r="H156" t="s">
-        <v>688</v>
+        <v>796</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13">
+        <v>863</v>
+      </c>
+      <c r="J156" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="B157" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C157" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D157" t="s">
         <v>384</v>
       </c>
-      <c r="E157">
-        <v>90755</v>
+      <c r="E157" t="s">
+        <v>504</v>
       </c>
       <c r="F157" t="s">
-        <v>521</v>
+        <v>657</v>
       </c>
       <c r="G157" t="s">
-        <v>633</v>
-      </c>
-      <c r="H157" t="s">
-        <v>661</v>
+        <v>769</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="J157" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" t="s">
         <v>19</v>
       </c>
       <c r="B158" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C158" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D158" t="s">
         <v>384</v>
       </c>
-      <c r="E158">
-        <v>95370</v>
+      <c r="E158" t="s">
+        <v>476</v>
       </c>
       <c r="F158" t="s">
-        <v>522</v>
+        <v>658</v>
       </c>
       <c r="G158" t="s">
-        <v>634</v>
+        <v>770</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" t="s">
         <v>19</v>
       </c>
       <c r="B159" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C159" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D159" t="s">
         <v>384</v>
       </c>
-      <c r="E159">
-        <v>95816</v>
+      <c r="E159" t="s">
+        <v>505</v>
       </c>
       <c r="F159" t="s">
-        <v>523</v>
+        <v>659</v>
       </c>
       <c r="G159" t="s">
-        <v>635</v>
+        <v>771</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" t="s">
         <v>19</v>
       </c>
       <c r="B160" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C160" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D160" t="s">
         <v>384</v>
       </c>
-      <c r="E160">
-        <v>95204</v>
+      <c r="E160" t="s">
+        <v>506</v>
       </c>
       <c r="F160" t="s">
-        <v>524</v>
+        <v>660</v>
       </c>
       <c r="G160" t="s">
-        <v>636</v>
+        <v>772</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="161" spans="1:12">
       <c r="A161" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="B161" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C161" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D161" t="s">
         <v>384</v>
       </c>
-      <c r="E161">
-        <v>92592</v>
+      <c r="E161" t="s">
+        <v>507</v>
       </c>
       <c r="F161" t="s">
-        <v>525</v>
-      </c>
-      <c r="G161" t="s">
-        <v>637</v>
+        <v>661</v>
+      </c>
+      <c r="H161" t="s">
+        <v>790</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>658</v>
+        <v>858</v>
+      </c>
+      <c r="J161" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="162" spans="1:12">
       <c r="A162" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B162" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C162" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D162" t="s">
         <v>384</v>
       </c>
-      <c r="E162">
-        <v>93465</v>
+      <c r="E162" t="s">
+        <v>508</v>
       </c>
       <c r="F162" t="s">
-        <v>526</v>
+        <v>662</v>
+      </c>
+      <c r="G162" t="s">
+        <v>773</v>
       </c>
       <c r="H162" t="s">
-        <v>655</v>
+        <v>849</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>723</v>
+        <v>881</v>
       </c>
       <c r="J162" t="s">
-        <v>833</v>
+        <v>969</v>
       </c>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="B163" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C163" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D163" t="s">
         <v>384</v>
       </c>
-      <c r="E163">
-        <v>91360</v>
+      <c r="E163" t="s">
+        <v>509</v>
       </c>
       <c r="F163" t="s">
-        <v>527</v>
+        <v>656</v>
       </c>
       <c r="G163" t="s">
-        <v>638</v>
-      </c>
-      <c r="H163" t="s">
-        <v>714</v>
+        <v>774</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="J163" t="s">
-        <v>834</v>
+        <v>793</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7423,7 +7849,7 @@
         <v>19</v>
       </c>
       <c r="B164" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C164" t="s">
         <v>373</v>
@@ -7431,228 +7857,231 @@
       <c r="D164" t="s">
         <v>384</v>
       </c>
-      <c r="E164">
-        <v>90501</v>
+      <c r="E164" t="s">
+        <v>510</v>
       </c>
       <c r="F164" t="s">
-        <v>521</v>
+        <v>657</v>
       </c>
       <c r="G164" t="s">
-        <v>639</v>
+        <v>775</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="165" spans="1:12">
       <c r="A165" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B165" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C165" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D165" t="s">
         <v>384</v>
       </c>
-      <c r="E165">
-        <v>90505</v>
+      <c r="E165" t="s">
+        <v>511</v>
       </c>
       <c r="F165" t="s">
-        <v>522</v>
+        <v>663</v>
       </c>
       <c r="G165" t="s">
-        <v>640</v>
+        <v>776</v>
+      </c>
+      <c r="H165" t="s">
+        <v>850</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>658</v>
+        <v>879</v>
+      </c>
+      <c r="J165" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="B166" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C166" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D166" t="s">
         <v>384</v>
       </c>
-      <c r="E166">
-        <v>95304</v>
+      <c r="E166" t="s">
+        <v>512</v>
       </c>
       <c r="F166" t="s">
-        <v>528</v>
+        <v>664</v>
       </c>
       <c r="G166" t="s">
-        <v>641</v>
-      </c>
-      <c r="H166" t="s">
-        <v>715</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="J166" t="s">
-        <v>835</v>
+        <v>777</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C167" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D167" t="s">
         <v>384</v>
       </c>
-      <c r="E167">
-        <v>95382</v>
+      <c r="E167" t="s">
+        <v>414</v>
       </c>
       <c r="F167" t="s">
-        <v>529</v>
+        <v>665</v>
       </c>
       <c r="G167" t="s">
-        <v>642</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>658</v>
+        <v>778</v>
+      </c>
+      <c r="H167" t="s">
+        <v>851</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="J167" t="s">
+        <v>971</v>
+      </c>
+      <c r="K167" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="B168" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C168" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D168" t="s">
         <v>384</v>
       </c>
-      <c r="E168">
-        <v>92708</v>
+      <c r="E168" t="s">
+        <v>513</v>
       </c>
       <c r="F168" t="s">
-        <v>530</v>
+        <v>666</v>
       </c>
       <c r="G168" t="s">
-        <v>643</v>
+        <v>779</v>
       </c>
       <c r="H168" t="s">
-        <v>716</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>724</v>
+        <v>852</v>
+      </c>
+      <c r="I168" t="s">
+        <v>905</v>
       </c>
       <c r="J168" t="s">
-        <v>836</v>
-      </c>
-      <c r="K168" t="s">
-        <v>868</v>
+        <v>972</v>
       </c>
     </row>
     <row r="169" spans="1:12">
       <c r="A169" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="B169" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C169" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D169" t="s">
         <v>384</v>
       </c>
-      <c r="E169">
-        <v>91355</v>
+      <c r="E169" t="s">
+        <v>514</v>
       </c>
       <c r="F169" t="s">
-        <v>531</v>
+        <v>667</v>
       </c>
       <c r="G169" t="s">
-        <v>644</v>
-      </c>
-      <c r="H169" t="s">
-        <v>717</v>
-      </c>
-      <c r="I169" t="s">
-        <v>770</v>
-      </c>
-      <c r="J169" t="s">
-        <v>837</v>
+        <v>780</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="170" spans="1:12">
       <c r="A170" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="B170" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C170" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D170" t="s">
         <v>384</v>
       </c>
-      <c r="E170">
-        <v>94589</v>
+      <c r="E170" t="s">
+        <v>515</v>
       </c>
       <c r="F170" t="s">
-        <v>532</v>
-      </c>
-      <c r="G170" t="s">
-        <v>645</v>
-      </c>
-      <c r="I170" s="2" t="s">
-        <v>658</v>
+        <v>668</v>
+      </c>
+      <c r="H170" t="s">
+        <v>853</v>
+      </c>
+      <c r="J170" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="171" spans="1:12">
       <c r="A171" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B171" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C171" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D171" t="s">
         <v>384</v>
       </c>
-      <c r="E171">
-        <v>91401</v>
+      <c r="E171" t="s">
+        <v>516</v>
       </c>
       <c r="F171" t="s">
-        <v>533</v>
+        <v>669</v>
+      </c>
+      <c r="G171" t="s">
+        <v>781</v>
       </c>
       <c r="H171" t="s">
-        <v>718</v>
+        <v>854</v>
       </c>
       <c r="J171" t="s">
-        <v>838</v>
+        <v>974</v>
       </c>
     </row>
     <row r="172" spans="1:12">
       <c r="A172" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B172" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C172" t="s">
         <v>380</v>
@@ -7660,66 +8089,72 @@
       <c r="D172" t="s">
         <v>384</v>
       </c>
-      <c r="E172">
-        <v>93003</v>
+      <c r="E172" t="s">
+        <v>516</v>
       </c>
       <c r="F172" t="s">
-        <v>534</v>
+        <v>670</v>
       </c>
       <c r="G172" t="s">
-        <v>646</v>
+        <v>782</v>
       </c>
       <c r="H172" t="s">
-        <v>719</v>
+        <v>855</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>906</v>
       </c>
       <c r="J172" t="s">
-        <v>839</v>
+        <v>975</v>
+      </c>
+      <c r="K172" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L172" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="173" spans="1:12">
       <c r="A173" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B173" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C173" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D173" t="s">
         <v>384</v>
       </c>
-      <c r="E173">
-        <v>93003</v>
+      <c r="E173" t="s">
+        <v>517</v>
       </c>
       <c r="F173" t="s">
-        <v>535</v>
+        <v>671</v>
       </c>
       <c r="G173" t="s">
-        <v>647</v>
+        <v>783</v>
       </c>
       <c r="H173" t="s">
-        <v>720</v>
+        <v>856</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>771</v>
+        <v>907</v>
       </c>
       <c r="J173" t="s">
-        <v>840</v>
+        <v>976</v>
       </c>
       <c r="K173" t="s">
-        <v>869</v>
-      </c>
-      <c r="L173" t="s">
-        <v>882</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="B174" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C174" t="s">
         <v>381</v>
@@ -7727,26 +8162,17 @@
       <c r="D174" t="s">
         <v>384</v>
       </c>
-      <c r="E174">
-        <v>92081</v>
+      <c r="E174" t="s">
+        <v>517</v>
       </c>
       <c r="F174" t="s">
-        <v>536</v>
+        <v>672</v>
       </c>
       <c r="G174" t="s">
-        <v>648</v>
-      </c>
-      <c r="H174" t="s">
-        <v>721</v>
+        <v>784</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="J174" t="s">
-        <v>841</v>
-      </c>
-      <c r="K174" t="s">
-        <v>870</v>
+        <v>793</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7754,83 +8180,57 @@
         <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C175" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D175" t="s">
         <v>384</v>
       </c>
-      <c r="E175">
-        <v>92081</v>
+      <c r="E175" t="s">
+        <v>518</v>
       </c>
       <c r="F175" t="s">
-        <v>537</v>
+        <v>673</v>
       </c>
       <c r="G175" t="s">
-        <v>649</v>
+        <v>785</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="B176" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C176" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D176" t="s">
         <v>384</v>
       </c>
-      <c r="E176">
-        <v>90601</v>
+      <c r="E176" t="s">
+        <v>519</v>
       </c>
       <c r="F176" t="s">
-        <v>538</v>
+        <v>674</v>
       </c>
       <c r="G176" t="s">
-        <v>650</v>
-      </c>
-      <c r="I176" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
-      <c r="A177" t="s">
-        <v>105</v>
-      </c>
-      <c r="B177" t="s">
-        <v>275</v>
-      </c>
-      <c r="C177" t="s">
-        <v>383</v>
-      </c>
-      <c r="D177" t="s">
-        <v>384</v>
-      </c>
-      <c r="E177">
-        <v>90606</v>
-      </c>
-      <c r="F177" t="s">
-        <v>539</v>
-      </c>
-      <c r="G177" t="s">
-        <v>651</v>
-      </c>
-      <c r="H177" t="s">
-        <v>661</v>
-      </c>
-      <c r="I177" t="s">
-        <v>773</v>
-      </c>
-      <c r="J177" t="s">
-        <v>842</v>
+        <v>786</v>
+      </c>
+      <c r="H176" t="s">
+        <v>796</v>
+      </c>
+      <c r="I176" t="s">
+        <v>908</v>
+      </c>
+      <c r="J176" t="s">
+        <v>977</v>
       </c>
     </row>
   </sheetData>
@@ -7930,32 +8330,32 @@
     <hyperlink ref="I132" r:id="rId93"/>
     <hyperlink ref="I133" r:id="rId94"/>
     <hyperlink ref="I135" r:id="rId95"/>
-    <hyperlink ref="I139" r:id="rId96"/>
-    <hyperlink ref="I143" r:id="rId97"/>
-    <hyperlink ref="I144" r:id="rId98"/>
-    <hyperlink ref="I145" r:id="rId99"/>
-    <hyperlink ref="I146" r:id="rId100"/>
-    <hyperlink ref="I151" r:id="rId101"/>
-    <hyperlink ref="I152" r:id="rId102"/>
-    <hyperlink ref="I155" r:id="rId103"/>
-    <hyperlink ref="I156" r:id="rId104"/>
-    <hyperlink ref="I157" r:id="rId105"/>
-    <hyperlink ref="I158" r:id="rId106"/>
-    <hyperlink ref="I159" r:id="rId107"/>
-    <hyperlink ref="I160" r:id="rId108"/>
-    <hyperlink ref="I161" r:id="rId109"/>
-    <hyperlink ref="I162" r:id="rId110"/>
-    <hyperlink ref="I163" r:id="rId111"/>
-    <hyperlink ref="I164" r:id="rId112"/>
-    <hyperlink ref="I165" r:id="rId113"/>
-    <hyperlink ref="I166" r:id="rId114"/>
-    <hyperlink ref="H167" r:id="rId115"/>
-    <hyperlink ref="I168" r:id="rId116"/>
-    <hyperlink ref="I170" r:id="rId117"/>
-    <hyperlink ref="I173" r:id="rId118"/>
-    <hyperlink ref="I174" r:id="rId119"/>
-    <hyperlink ref="I175" r:id="rId120"/>
-    <hyperlink ref="I176" r:id="rId121"/>
+    <hyperlink ref="I138" r:id="rId96"/>
+    <hyperlink ref="I142" r:id="rId97"/>
+    <hyperlink ref="I143" r:id="rId98"/>
+    <hyperlink ref="I144" r:id="rId99"/>
+    <hyperlink ref="I145" r:id="rId100"/>
+    <hyperlink ref="I150" r:id="rId101"/>
+    <hyperlink ref="I151" r:id="rId102"/>
+    <hyperlink ref="I154" r:id="rId103"/>
+    <hyperlink ref="I155" r:id="rId104"/>
+    <hyperlink ref="I156" r:id="rId105"/>
+    <hyperlink ref="I157" r:id="rId106"/>
+    <hyperlink ref="I158" r:id="rId107"/>
+    <hyperlink ref="I159" r:id="rId108"/>
+    <hyperlink ref="I160" r:id="rId109"/>
+    <hyperlink ref="I161" r:id="rId110"/>
+    <hyperlink ref="I162" r:id="rId111"/>
+    <hyperlink ref="I163" r:id="rId112"/>
+    <hyperlink ref="I164" r:id="rId113"/>
+    <hyperlink ref="I165" r:id="rId114"/>
+    <hyperlink ref="H166" r:id="rId115"/>
+    <hyperlink ref="I167" r:id="rId116"/>
+    <hyperlink ref="I169" r:id="rId117"/>
+    <hyperlink ref="I172" r:id="rId118"/>
+    <hyperlink ref="I173" r:id="rId119"/>
+    <hyperlink ref="I174" r:id="rId120"/>
+    <hyperlink ref="I175" r:id="rId121"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
